--- a/biology/Zoologie/Forêt_des_singes_de_Rocamadour/Forêt_des_singes_de_Rocamadour.xlsx
+++ b/biology/Zoologie/Forêt_des_singes_de_Rocamadour/Forêt_des_singes_de_Rocamadour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_des_singes_de_Rocamadour</t>
+          <t>Forêt_des_singes_de_Rocamadour</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt des singes est un parc zoologique français situé sur la commune de Rocamadour département du Lot en Occitanie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_des_singes_de_Rocamadour</t>
+          <t>Forêt_des_singes_de_Rocamadour</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé sur le causse de Gramat surplombant un méandre du Lot.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_des_singes_de_Rocamadour</t>
+          <t>Forêt_des_singes_de_Rocamadour</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé en 1974 c'est le deuxième lieu le plus visité du Lot, après le gouffre de Padirac en 2018[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé en 1974 c'est le deuxième lieu le plus visité du Lot, après le gouffre de Padirac en 2018.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_des_singes_de_Rocamadour</t>
+          <t>Forêt_des_singes_de_Rocamadour</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Faune présentée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une seule espèce y est présente le Macaque de Barbarie, une espèce menacée[2]. On peut y voir 150 macaques de Barbarie, appelés également magots[3], en toute liberté et à l’état sauvage[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une seule espèce y est présente le Macaque de Barbarie, une espèce menacée. On peut y voir 150 macaques de Barbarie, appelés également magots, en toute liberté et à l’état sauvage.
 Ouvert au public de fin mars à mi-novembre.
 </t>
         </is>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_des_singes_de_Rocamadour</t>
+          <t>Forêt_des_singes_de_Rocamadour</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Objectifs et actions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sensibilisation du public, repeuplement, recherches éthologiques[5]. 
-Les scientifiques y étudient le comportement social du Macaque de Barbarie depuis 1974[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sensibilisation du public, repeuplement, recherches éthologiques. 
+Les scientifiques y étudient le comportement social du Macaque de Barbarie depuis 1974.
 Et la réintroduction de plus de 600 individus en Algérie et au Maroc.
 </t>
         </is>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>For%C3%AAt_des_singes_de_Rocamadour</t>
+          <t>Forêt_des_singes_de_Rocamadour</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,9 +659,11 @@
           <t>Gestion</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Société à responsabilité limitée est active depuis 44 ans et gérée par Guillaume De Turkheim depuis 1975[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Société à responsabilité limitée est active depuis 44 ans et gérée par Guillaume De Turkheim depuis 1975.
 </t>
         </is>
       </c>
